--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il11</t>
   </si>
   <si>
     <t>Il11ra1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.45444151998711</v>
+        <v>0.06162</v>
       </c>
       <c r="H2">
-        <v>2.45444151998711</v>
+        <v>0.12324</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.009272539064069453</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.007170225064428173</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.17014761517851</v>
+        <v>3.1703235</v>
       </c>
       <c r="N2">
-        <v>3.17014761517851</v>
+        <v>6.340647</v>
       </c>
       <c r="O2">
-        <v>0.07912792369347912</v>
+        <v>0.07487434910048792</v>
       </c>
       <c r="P2">
-        <v>0.07912792369347912</v>
+        <v>0.05219457779685493</v>
       </c>
       <c r="Q2">
-        <v>7.780941931182253</v>
+        <v>0.19535533407</v>
       </c>
       <c r="R2">
-        <v>7.780941931182253</v>
+        <v>0.78142133628</v>
       </c>
       <c r="S2">
-        <v>0.07912792369347912</v>
+        <v>0.0006942753269310477</v>
       </c>
       <c r="T2">
-        <v>0.07912792369347912</v>
+        <v>0.0003742468699462554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.45444151998711</v>
+        <v>0.06162</v>
       </c>
       <c r="H3">
-        <v>2.45444151998711</v>
+        <v>0.12324</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.009272539064069453</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.007170225064428173</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.1729989482809</v>
+        <v>24.675659</v>
       </c>
       <c r="N3">
-        <v>23.1729989482809</v>
+        <v>74.026977</v>
       </c>
       <c r="O3">
-        <v>0.5784056501814954</v>
+        <v>0.5827714131540824</v>
       </c>
       <c r="P3">
-        <v>0.5784056501814954</v>
+        <v>0.6093710641977846</v>
       </c>
       <c r="Q3">
-        <v>56.87677076127827</v>
+        <v>1.52051410758</v>
       </c>
       <c r="R3">
-        <v>56.87677076127827</v>
+        <v>9.123084645480001</v>
       </c>
       <c r="S3">
-        <v>0.5784056501814954</v>
+        <v>0.005403770693894188</v>
       </c>
       <c r="T3">
-        <v>0.5784056501814954</v>
+        <v>0.004369327678048224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.45444151998711</v>
+        <v>0.06162</v>
       </c>
       <c r="H4">
-        <v>2.45444151998711</v>
+        <v>0.12324</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.009272539064069453</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.007170225064428173</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.07168974548294</v>
+        <v>3.484750333333333</v>
       </c>
       <c r="N4">
-        <v>3.07168974548294</v>
+        <v>10.454251</v>
       </c>
       <c r="O4">
-        <v>0.07667038299001416</v>
+        <v>0.08230024885032761</v>
       </c>
       <c r="P4">
-        <v>0.07667038299001416</v>
+        <v>0.08605670953253641</v>
       </c>
       <c r="Q4">
-        <v>7.539282847831966</v>
+        <v>0.21473031554</v>
       </c>
       <c r="R4">
-        <v>7.539282847831966</v>
+        <v>1.28838189324</v>
       </c>
       <c r="S4">
-        <v>0.07667038299001416</v>
+        <v>0.0007631322724472998</v>
       </c>
       <c r="T4">
-        <v>0.07667038299001416</v>
+        <v>0.0006170459756524075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.45444151998711</v>
+        <v>0.06162</v>
       </c>
       <c r="H5">
-        <v>2.45444151998711</v>
+        <v>0.12324</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.009272539064069453</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.007170225064428173</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.75522869576256</v>
+        <v>5.849710999999999</v>
       </c>
       <c r="N5">
-        <v>5.75522869576256</v>
+        <v>17.549133</v>
       </c>
       <c r="O5">
-        <v>0.1436523948905067</v>
+        <v>0.1381541358637263</v>
       </c>
       <c r="P5">
-        <v>0.1436523948905067</v>
+        <v>0.1444599561583943</v>
       </c>
       <c r="Q5">
-        <v>14.12587226790089</v>
+        <v>0.36045919182</v>
       </c>
       <c r="R5">
-        <v>14.12587226790089</v>
+        <v>2.16275515092</v>
       </c>
       <c r="S5">
-        <v>0.1436523948905067</v>
+        <v>0.00128103962165916</v>
       </c>
       <c r="T5">
-        <v>0.1436523948905067</v>
+        <v>0.001035810398453113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.45444151998711</v>
+        <v>0.06162</v>
       </c>
       <c r="H6">
-        <v>2.45444151998711</v>
+        <v>0.12324</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.009272539064069453</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.007170225064428173</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.61253843611548</v>
+        <v>2.786997</v>
       </c>
       <c r="N6">
-        <v>2.61253843611548</v>
+        <v>8.360991</v>
       </c>
       <c r="O6">
-        <v>0.06520981579199629</v>
+        <v>0.06582122812388468</v>
       </c>
       <c r="P6">
-        <v>0.06520981579199629</v>
+        <v>0.0688255307712768</v>
       </c>
       <c r="Q6">
-        <v>6.412322810164025</v>
+        <v>0.17173475514</v>
       </c>
       <c r="R6">
-        <v>6.412322810164025</v>
+        <v>1.03040853084</v>
       </c>
       <c r="S6">
-        <v>0.06520981579199629</v>
+        <v>0.0006103299090237475</v>
       </c>
       <c r="T6">
-        <v>0.06520981579199629</v>
+        <v>0.0004934945458087813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1549 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.06162</v>
+      </c>
+      <c r="H7">
+        <v>0.12324</v>
+      </c>
+      <c r="I7">
+        <v>0.009272539064069453</v>
+      </c>
+      <c r="J7">
+        <v>0.007170225064428173</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.3744765</v>
+      </c>
+      <c r="N7">
+        <v>4.748953</v>
+      </c>
+      <c r="O7">
+        <v>0.05607862490749121</v>
+      </c>
+      <c r="P7">
+        <v>0.03909216154315287</v>
+      </c>
+      <c r="Q7">
+        <v>0.14631524193</v>
+      </c>
+      <c r="R7">
+        <v>0.58526096772</v>
+      </c>
+      <c r="S7">
+        <v>0.0005199912401140104</v>
+      </c>
+      <c r="T7">
+        <v>0.0002802995965193898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.381336666666666</v>
+      </c>
+      <c r="H8">
+        <v>10.14401</v>
+      </c>
+      <c r="I8">
+        <v>0.5088214269788551</v>
+      </c>
+      <c r="J8">
+        <v>0.5901885325852809</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.1703235</v>
+      </c>
+      <c r="N8">
+        <v>6.340647</v>
+      </c>
+      <c r="O8">
+        <v>0.07487434910048792</v>
+      </c>
+      <c r="P8">
+        <v>0.05219457779685493</v>
+      </c>
+      <c r="Q8">
+        <v>10.719931095745</v>
+      </c>
+      <c r="R8">
+        <v>64.31958657446999</v>
+      </c>
+      <c r="S8">
+        <v>0.03809767315342322</v>
+      </c>
+      <c r="T8">
+        <v>0.0308046412788341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.381336666666666</v>
+      </c>
+      <c r="H9">
+        <v>10.14401</v>
+      </c>
+      <c r="I9">
+        <v>0.5088214269788551</v>
+      </c>
+      <c r="J9">
+        <v>0.5901885325852809</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>24.675659</v>
+      </c>
+      <c r="N9">
+        <v>74.026977</v>
+      </c>
+      <c r="O9">
+        <v>0.5827714131540824</v>
+      </c>
+      <c r="P9">
+        <v>0.6093710641977846</v>
+      </c>
+      <c r="Q9">
+        <v>83.43671055086332</v>
+      </c>
+      <c r="R9">
+        <v>750.93039495777</v>
+      </c>
+      <c r="S9">
+        <v>0.2965265820435442</v>
+      </c>
+      <c r="T9">
+        <v>0.3596438141788215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.381336666666666</v>
+      </c>
+      <c r="H10">
+        <v>10.14401</v>
+      </c>
+      <c r="I10">
+        <v>0.5088214269788551</v>
+      </c>
+      <c r="J10">
+        <v>0.5901885325852809</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.484750333333333</v>
+      </c>
+      <c r="N10">
+        <v>10.454251</v>
+      </c>
+      <c r="O10">
+        <v>0.08230024885032761</v>
+      </c>
+      <c r="P10">
+        <v>0.08605670953253641</v>
+      </c>
+      <c r="Q10">
+        <v>11.78311407627889</v>
+      </c>
+      <c r="R10">
+        <v>106.04802668651</v>
+      </c>
+      <c r="S10">
+        <v>0.04187613006073857</v>
+      </c>
+      <c r="T10">
+        <v>0.05078968311812542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.381336666666666</v>
+      </c>
+      <c r="H11">
+        <v>10.14401</v>
+      </c>
+      <c r="I11">
+        <v>0.5088214269788551</v>
+      </c>
+      <c r="J11">
+        <v>0.5901885325852809</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.849710999999999</v>
+      </c>
+      <c r="N11">
+        <v>17.549133</v>
+      </c>
+      <c r="O11">
+        <v>0.1381541358637263</v>
+      </c>
+      <c r="P11">
+        <v>0.1444599561583943</v>
+      </c>
+      <c r="Q11">
+        <v>19.77984229370333</v>
+      </c>
+      <c r="R11">
+        <v>178.01858064333</v>
+      </c>
+      <c r="S11">
+        <v>0.07029578455321182</v>
+      </c>
+      <c r="T11">
+        <v>0.08525860954245673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.381336666666666</v>
+      </c>
+      <c r="H12">
+        <v>10.14401</v>
+      </c>
+      <c r="I12">
+        <v>0.5088214269788551</v>
+      </c>
+      <c r="J12">
+        <v>0.5901885325852809</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.786997</v>
+      </c>
+      <c r="N12">
+        <v>8.360991</v>
+      </c>
+      <c r="O12">
+        <v>0.06582122812388468</v>
+      </c>
+      <c r="P12">
+        <v>0.0688255307712768</v>
+      </c>
+      <c r="Q12">
+        <v>9.42377514599</v>
+      </c>
+      <c r="R12">
+        <v>84.81397631391</v>
+      </c>
+      <c r="S12">
+        <v>0.03349125121949575</v>
+      </c>
+      <c r="T12">
+        <v>0.04062003901030296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.381336666666666</v>
+      </c>
+      <c r="H13">
+        <v>10.14401</v>
+      </c>
+      <c r="I13">
+        <v>0.5088214269788551</v>
+      </c>
+      <c r="J13">
+        <v>0.5901885325852809</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.3744765</v>
+      </c>
+      <c r="N13">
+        <v>4.748953</v>
+      </c>
+      <c r="O13">
+        <v>0.05607862490749121</v>
+      </c>
+      <c r="P13">
+        <v>0.03909216154315287</v>
+      </c>
+      <c r="Q13">
+        <v>8.028904453588334</v>
+      </c>
+      <c r="R13">
+        <v>48.17342672153</v>
+      </c>
+      <c r="S13">
+        <v>0.02853400594844164</v>
+      </c>
+      <c r="T13">
+        <v>0.02307174545674014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1954763333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.586429</v>
+      </c>
+      <c r="I14">
+        <v>0.02941515639296324</v>
+      </c>
+      <c r="J14">
+        <v>0.03411901910343678</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.1703235</v>
+      </c>
+      <c r="N14">
+        <v>6.340647</v>
+      </c>
+      <c r="O14">
+        <v>0.07487434910048792</v>
+      </c>
+      <c r="P14">
+        <v>0.05219457779685493</v>
+      </c>
+      <c r="Q14">
+        <v>0.6197232132604999</v>
+      </c>
+      <c r="R14">
+        <v>3.718339279563</v>
+      </c>
+      <c r="S14">
+        <v>0.002202440688612179</v>
+      </c>
+      <c r="T14">
+        <v>0.00178082779694671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1954763333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.586429</v>
+      </c>
+      <c r="I15">
+        <v>0.02941515639296324</v>
+      </c>
+      <c r="J15">
+        <v>0.03411901910343678</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.675659</v>
+      </c>
+      <c r="N15">
+        <v>74.026977</v>
+      </c>
+      <c r="O15">
+        <v>0.5827714131540824</v>
+      </c>
+      <c r="P15">
+        <v>0.6093710641977846</v>
+      </c>
+      <c r="Q15">
+        <v>4.823507343903667</v>
+      </c>
+      <c r="R15">
+        <v>43.411566095133</v>
+      </c>
+      <c r="S15">
+        <v>0.01714231225927553</v>
+      </c>
+      <c r="T15">
+        <v>0.02079114298044581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.45444151998711</v>
-      </c>
-      <c r="H7">
-        <v>2.45444151998711</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.28097294542263</v>
-      </c>
-      <c r="N7">
-        <v>2.28097294542263</v>
-      </c>
-      <c r="O7">
-        <v>0.05693383245250835</v>
-      </c>
-      <c r="P7">
-        <v>0.05693383245250835</v>
-      </c>
-      <c r="Q7">
-        <v>5.598514703212595</v>
-      </c>
-      <c r="R7">
-        <v>5.598514703212595</v>
-      </c>
-      <c r="S7">
-        <v>0.05693383245250835</v>
-      </c>
-      <c r="T7">
-        <v>0.05693383245250835</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1954763333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.586429</v>
+      </c>
+      <c r="I16">
+        <v>0.02941515639296324</v>
+      </c>
+      <c r="J16">
+        <v>0.03411901910343678</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.484750333333333</v>
+      </c>
+      <c r="N16">
+        <v>10.454251</v>
+      </c>
+      <c r="O16">
+        <v>0.08230024885032761</v>
+      </c>
+      <c r="P16">
+        <v>0.08605670953253641</v>
+      </c>
+      <c r="Q16">
+        <v>0.6811862177421111</v>
+      </c>
+      <c r="R16">
+        <v>6.130675959678999</v>
+      </c>
+      <c r="S16">
+        <v>0.00242087469111218</v>
+      </c>
+      <c r="T16">
+        <v>0.00293617051651952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1954763333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.586429</v>
+      </c>
+      <c r="I17">
+        <v>0.02941515639296324</v>
+      </c>
+      <c r="J17">
+        <v>0.03411901910343678</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.849710999999999</v>
+      </c>
+      <c r="N17">
+        <v>17.549133</v>
+      </c>
+      <c r="O17">
+        <v>0.1381541358637263</v>
+      </c>
+      <c r="P17">
+        <v>0.1444599561583943</v>
+      </c>
+      <c r="Q17">
+        <v>1.143480057339667</v>
+      </c>
+      <c r="R17">
+        <v>10.291320516057</v>
+      </c>
+      <c r="S17">
+        <v>0.0040638255127662</v>
+      </c>
+      <c r="T17">
+        <v>0.004928832003849894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1954763333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.586429</v>
+      </c>
+      <c r="I18">
+        <v>0.02941515639296324</v>
+      </c>
+      <c r="J18">
+        <v>0.03411901910343678</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.786997</v>
+      </c>
+      <c r="N18">
+        <v>8.360991</v>
+      </c>
+      <c r="O18">
+        <v>0.06582122812388468</v>
+      </c>
+      <c r="P18">
+        <v>0.0688255307712768</v>
+      </c>
+      <c r="Q18">
+        <v>0.544791954571</v>
+      </c>
+      <c r="R18">
+        <v>4.903127591139</v>
+      </c>
+      <c r="S18">
+        <v>0.001936141719240978</v>
+      </c>
+      <c r="T18">
+        <v>0.002348259599189369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1954763333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.586429</v>
+      </c>
+      <c r="I19">
+        <v>0.02941515639296324</v>
+      </c>
+      <c r="J19">
+        <v>0.03411901910343678</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.3744765</v>
+      </c>
+      <c r="N19">
+        <v>4.748953</v>
+      </c>
+      <c r="O19">
+        <v>0.05607862490749121</v>
+      </c>
+      <c r="P19">
+        <v>0.03909216154315287</v>
+      </c>
+      <c r="Q19">
+        <v>0.4641539598061667</v>
+      </c>
+      <c r="R19">
+        <v>2.784923758837</v>
+      </c>
+      <c r="S19">
+        <v>0.001649561521956178</v>
+      </c>
+      <c r="T19">
+        <v>0.001333786206485469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.320074</v>
+      </c>
+      <c r="H20">
+        <v>0.960222</v>
+      </c>
+      <c r="I20">
+        <v>0.04816453535204424</v>
+      </c>
+      <c r="J20">
+        <v>0.05586666546425956</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.1703235</v>
+      </c>
+      <c r="N20">
+        <v>6.340647</v>
+      </c>
+      <c r="O20">
+        <v>0.07487434910048792</v>
+      </c>
+      <c r="P20">
+        <v>0.05219457779685493</v>
+      </c>
+      <c r="Q20">
+        <v>1.014738123939</v>
+      </c>
+      <c r="R20">
+        <v>6.088428743634</v>
+      </c>
+      <c r="S20">
+        <v>0.003606288234211752</v>
+      </c>
+      <c r="T20">
+        <v>0.002915937016825164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.320074</v>
+      </c>
+      <c r="H21">
+        <v>0.960222</v>
+      </c>
+      <c r="I21">
+        <v>0.04816453535204424</v>
+      </c>
+      <c r="J21">
+        <v>0.05586666546425956</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.675659</v>
+      </c>
+      <c r="N21">
+        <v>74.026977</v>
+      </c>
+      <c r="O21">
+        <v>0.5827714131540824</v>
+      </c>
+      <c r="P21">
+        <v>0.6093710641977846</v>
+      </c>
+      <c r="Q21">
+        <v>7.898036878766001</v>
+      </c>
+      <c r="R21">
+        <v>71.08233190889401</v>
+      </c>
+      <c r="S21">
+        <v>0.02806891433102058</v>
+      </c>
+      <c r="T21">
+        <v>0.03404352938713747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.320074</v>
+      </c>
+      <c r="H22">
+        <v>0.960222</v>
+      </c>
+      <c r="I22">
+        <v>0.04816453535204424</v>
+      </c>
+      <c r="J22">
+        <v>0.05586666546425956</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.484750333333333</v>
+      </c>
+      <c r="N22">
+        <v>10.454251</v>
+      </c>
+      <c r="O22">
+        <v>0.08230024885032761</v>
+      </c>
+      <c r="P22">
+        <v>0.08605670953253641</v>
+      </c>
+      <c r="Q22">
+        <v>1.115377978191333</v>
+      </c>
+      <c r="R22">
+        <v>10.038401803722</v>
+      </c>
+      <c r="S22">
+        <v>0.003963953245233643</v>
+      </c>
+      <c r="T22">
+        <v>0.004807701402409169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.320074</v>
+      </c>
+      <c r="H23">
+        <v>0.960222</v>
+      </c>
+      <c r="I23">
+        <v>0.04816453535204424</v>
+      </c>
+      <c r="J23">
+        <v>0.05586666546425956</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.849710999999999</v>
+      </c>
+      <c r="N23">
+        <v>17.549133</v>
+      </c>
+      <c r="O23">
+        <v>0.1381541358637263</v>
+      </c>
+      <c r="P23">
+        <v>0.1444599561583943</v>
+      </c>
+      <c r="Q23">
+        <v>1.872340398614</v>
+      </c>
+      <c r="R23">
+        <v>16.851063587526</v>
+      </c>
+      <c r="S23">
+        <v>0.006654129760839568</v>
+      </c>
+      <c r="T23">
+        <v>0.008070496043682616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.320074</v>
+      </c>
+      <c r="H24">
+        <v>0.960222</v>
+      </c>
+      <c r="I24">
+        <v>0.04816453535204424</v>
+      </c>
+      <c r="J24">
+        <v>0.05586666546425956</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.786997</v>
+      </c>
+      <c r="N24">
+        <v>8.360991</v>
+      </c>
+      <c r="O24">
+        <v>0.06582122812388468</v>
+      </c>
+      <c r="P24">
+        <v>0.0688255307712768</v>
+      </c>
+      <c r="Q24">
+        <v>0.892045277778</v>
+      </c>
+      <c r="R24">
+        <v>8.028407500002</v>
+      </c>
+      <c r="S24">
+        <v>0.003170248868887812</v>
+      </c>
+      <c r="T24">
+        <v>0.003845052902999023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.320074</v>
+      </c>
+      <c r="H25">
+        <v>0.960222</v>
+      </c>
+      <c r="I25">
+        <v>0.04816453535204424</v>
+      </c>
+      <c r="J25">
+        <v>0.05586666546425956</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.3744765</v>
+      </c>
+      <c r="N25">
+        <v>4.748953</v>
+      </c>
+      <c r="O25">
+        <v>0.05607862490749121</v>
+      </c>
+      <c r="P25">
+        <v>0.03909216154315287</v>
+      </c>
+      <c r="Q25">
+        <v>0.7600081912610001</v>
+      </c>
+      <c r="R25">
+        <v>4.560049147566001</v>
+      </c>
+      <c r="S25">
+        <v>0.002701000911850889</v>
+      </c>
+      <c r="T25">
+        <v>0.002183948711206114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>2.686922</v>
+      </c>
+      <c r="H26">
+        <v>5.373844</v>
+      </c>
+      <c r="I26">
+        <v>0.4043263422120679</v>
+      </c>
+      <c r="J26">
+        <v>0.3126555577825945</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.1703235</v>
+      </c>
+      <c r="N26">
+        <v>6.340647</v>
+      </c>
+      <c r="O26">
+        <v>0.07487434910048792</v>
+      </c>
+      <c r="P26">
+        <v>0.05219457779685493</v>
+      </c>
+      <c r="Q26">
+        <v>8.518411959267</v>
+      </c>
+      <c r="R26">
+        <v>34.073647837068</v>
+      </c>
+      <c r="S26">
+        <v>0.03027367169730971</v>
+      </c>
+      <c r="T26">
+        <v>0.0163189248343027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>2.686922</v>
+      </c>
+      <c r="H27">
+        <v>5.373844</v>
+      </c>
+      <c r="I27">
+        <v>0.4043263422120679</v>
+      </c>
+      <c r="J27">
+        <v>0.3126555577825945</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>24.675659</v>
+      </c>
+      <c r="N27">
+        <v>74.026977</v>
+      </c>
+      <c r="O27">
+        <v>0.5827714131540824</v>
+      </c>
+      <c r="P27">
+        <v>0.6093710641977846</v>
+      </c>
+      <c r="Q27">
+        <v>66.301571031598</v>
+      </c>
+      <c r="R27">
+        <v>397.809426189588</v>
+      </c>
+      <c r="S27">
+        <v>0.2356298338263479</v>
+      </c>
+      <c r="T27">
+        <v>0.1905232499733316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>2.686922</v>
+      </c>
+      <c r="H28">
+        <v>5.373844</v>
+      </c>
+      <c r="I28">
+        <v>0.4043263422120679</v>
+      </c>
+      <c r="J28">
+        <v>0.3126555577825945</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.484750333333333</v>
+      </c>
+      <c r="N28">
+        <v>10.454251</v>
+      </c>
+      <c r="O28">
+        <v>0.08230024885032761</v>
+      </c>
+      <c r="P28">
+        <v>0.08605670953253641</v>
+      </c>
+      <c r="Q28">
+        <v>9.363252335140666</v>
+      </c>
+      <c r="R28">
+        <v>56.179514010844</v>
+      </c>
+      <c r="S28">
+        <v>0.0332761585807959</v>
+      </c>
+      <c r="T28">
+        <v>0.02690610851982989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>2.686922</v>
+      </c>
+      <c r="H29">
+        <v>5.373844</v>
+      </c>
+      <c r="I29">
+        <v>0.4043263422120679</v>
+      </c>
+      <c r="J29">
+        <v>0.3126555577825945</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.849710999999999</v>
+      </c>
+      <c r="N29">
+        <v>17.549133</v>
+      </c>
+      <c r="O29">
+        <v>0.1381541358637263</v>
+      </c>
+      <c r="P29">
+        <v>0.1444599561583943</v>
+      </c>
+      <c r="Q29">
+        <v>15.717717179542</v>
+      </c>
+      <c r="R29">
+        <v>94.30630307725198</v>
+      </c>
+      <c r="S29">
+        <v>0.05585935641524951</v>
+      </c>
+      <c r="T29">
+        <v>0.04516620816995191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>2.686922</v>
+      </c>
+      <c r="H30">
+        <v>5.373844</v>
+      </c>
+      <c r="I30">
+        <v>0.4043263422120679</v>
+      </c>
+      <c r="J30">
+        <v>0.3126555577825945</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.786997</v>
+      </c>
+      <c r="N30">
+        <v>8.360991</v>
+      </c>
+      <c r="O30">
+        <v>0.06582122812388468</v>
+      </c>
+      <c r="P30">
+        <v>0.0688255307712768</v>
+      </c>
+      <c r="Q30">
+        <v>7.488443553234</v>
+      </c>
+      <c r="R30">
+        <v>44.930661319404</v>
+      </c>
+      <c r="S30">
+        <v>0.02661325640723638</v>
+      </c>
+      <c r="T30">
+        <v>0.02151868471297667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>2.686922</v>
+      </c>
+      <c r="H31">
+        <v>5.373844</v>
+      </c>
+      <c r="I31">
+        <v>0.4043263422120679</v>
+      </c>
+      <c r="J31">
+        <v>0.3126555577825945</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.3744765</v>
+      </c>
+      <c r="N31">
+        <v>4.748953</v>
+      </c>
+      <c r="O31">
+        <v>0.05607862490749121</v>
+      </c>
+      <c r="P31">
+        <v>0.03909216154315287</v>
+      </c>
+      <c r="Q31">
+        <v>6.380033146333</v>
+      </c>
+      <c r="R31">
+        <v>25.520132585332</v>
+      </c>
+      <c r="S31">
+        <v>0.02267406528512848</v>
+      </c>
+      <c r="T31">
+        <v>0.01222238157220175</v>
       </c>
     </row>
   </sheetData>
